--- a/results2.xlsx
+++ b/results2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\امتحانات الكورس الثاني\امتحانات كورس اول 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DD3233-1104-483A-8F8A-BAF9985DB6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B9F05-38A8-422A-A948-496CABACFE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64B607E4-2FA6-4167-B52D-26625A4C85A0}"/>
   </bookViews>
@@ -2883,8 +2883,8 @@
   </sheetPr>
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
